--- a/testcases.xlsx
+++ b/testcases.xlsx
@@ -5,20 +5,20 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\surpraka\Desktop\RoboTester\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rohsinha2\Downloads\RoboTester-master\RoboTester-master\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" tabRatio="752"/>
   </bookViews>
   <sheets>
-    <sheet name="RunTest" sheetId="1" r:id="rId1"/>
-    <sheet name="cetera1" sheetId="5" r:id="rId2"/>
-    <sheet name="cetera2" sheetId="8" r:id="rId3"/>
-    <sheet name="MFS1" sheetId="2" r:id="rId4"/>
-    <sheet name="MFS2" sheetId="3" r:id="rId5"/>
-    <sheet name="MFS3" sheetId="4" r:id="rId6"/>
-    <sheet name="Webservice" sheetId="7" r:id="rId7"/>
+    <sheet name="Driver" sheetId="12" r:id="rId1"/>
+    <sheet name="MFS1" sheetId="2" r:id="rId2"/>
+    <sheet name="MFS2" sheetId="16" r:id="rId3"/>
+    <sheet name="MFS3" sheetId="13" r:id="rId4"/>
+    <sheet name="Webservice" sheetId="7" r:id="rId5"/>
+    <sheet name="cetera1" sheetId="5" r:id="rId6"/>
+    <sheet name="cetera2" sheetId="8" r:id="rId7"/>
     <sheet name="Sapient" sheetId="11" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="101">
   <si>
     <t>click on 'Careers'</t>
   </si>
@@ -46,24 +46,6 @@
   </si>
   <si>
     <t>Verify registration for Financial Advisor US</t>
-  </si>
-  <si>
-    <t>open 'www.mfs.com'</t>
-  </si>
-  <si>
-    <t>click on 'INVESTMENT PROFESSIONAL'</t>
-  </si>
-  <si>
-    <t>click on 'UNITED STATES'</t>
-  </si>
-  <si>
-    <t>ENTER 'BAT123' IN 'userName'</t>
-  </si>
-  <si>
-    <t>Click on 'Complete'</t>
-  </si>
-  <si>
-    <t>User navigate to registration page in MFS redesign web site</t>
   </si>
   <si>
     <t xml:space="preserve">User clicks on Investment Professional -&gt; US -&gt; Financial Advisor
@@ -85,72 +67,12 @@
     <t>click on 'Register'</t>
   </si>
   <si>
-    <t>enter 'password' in 'password'</t>
-  </si>
-  <si>
-    <t>click on 'I Agree'</t>
-  </si>
-  <si>
     <t>Verify</t>
   </si>
   <si>
-    <t>User choose the shareholder option</t>
-  </si>
-  <si>
-    <t>click on 'Shareholder'</t>
-  </si>
-  <si>
-    <t>Enter 'Daredevil' in 'customerId.value'</t>
-  </si>
-  <si>
-    <t>Enter 'Punisher' in 'customerPassword.value'</t>
-  </si>
-  <si>
     <t>click on 'Continue'</t>
   </si>
   <si>
-    <t>Register a new user as shareholder</t>
-  </si>
-  <si>
-    <t>Go to the Menu in the MFS site.</t>
-  </si>
-  <si>
-    <t>Click on Tax Centre under Manage Your Account</t>
-  </si>
-  <si>
-    <t>click on 'Menu'</t>
-  </si>
-  <si>
-    <t>Go to Cost-Basis Reporting.</t>
-  </si>
-  <si>
-    <t>Click on 'Manage Your Account'</t>
-  </si>
-  <si>
-    <t>Check the Question and Answers page in Education &amp; Support Resources</t>
-  </si>
-  <si>
-    <t>click on 'Tax Center'</t>
-  </si>
-  <si>
-    <t>Go back to the Home Page</t>
-  </si>
-  <si>
-    <t>click on 'Cost-Basis Reporting'</t>
-  </si>
-  <si>
-    <t>click on 'Education &amp; Support Resources'</t>
-  </si>
-  <si>
-    <t>click on 'Questions and Answers'</t>
-  </si>
-  <si>
-    <t>click on 'Home'</t>
-  </si>
-  <si>
-    <t>Check Q&amp;A page display in Tax Centre and traverse back to Homepage</t>
-  </si>
-  <si>
     <t>Check Get service for math.api</t>
   </si>
   <si>
@@ -163,9 +85,6 @@
     <t>open 'www.cetera.com'</t>
   </si>
   <si>
-    <t>click on 'Our Firms'</t>
-  </si>
-  <si>
     <t>click on 'Client Login'</t>
   </si>
   <si>
@@ -283,13 +202,142 @@
     <t>click on 'Search'</t>
   </si>
   <si>
-    <t>click on 'Investment Professional'</t>
-  </si>
-  <si>
-    <t>click on 'GO'</t>
-  </si>
-  <si>
     <t>click on 'Save my selection'</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>cetera1</t>
+  </si>
+  <si>
+    <t>cetera2</t>
+  </si>
+  <si>
+    <t>RegressionExecutionFlag</t>
+  </si>
+  <si>
+    <t>MFS1</t>
+  </si>
+  <si>
+    <t>MFS2</t>
+  </si>
+  <si>
+    <t>MFS3</t>
+  </si>
+  <si>
+    <t>Webservice</t>
+  </si>
+  <si>
+    <t>Sapient</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>click on 'Our Differences'</t>
+  </si>
+  <si>
+    <t>Assert 'logo' is displayed</t>
+  </si>
+  <si>
+    <t>validate Login Functionality</t>
+  </si>
+  <si>
+    <t>Visit mfs.com</t>
+  </si>
+  <si>
+    <t>Click on login and Enter Credits</t>
+  </si>
+  <si>
+    <t>Assert that 'MFS Logo' is displayed</t>
+  </si>
+  <si>
+    <t>Assert that 'rememberme' is not selected</t>
+  </si>
+  <si>
+    <t>validate that 'password' is enabled</t>
+  </si>
+  <si>
+    <t>validate Login Functionality With Wrong credits</t>
+  </si>
+  <si>
+    <t>Assert that error 'Please log in with a valid user name and password' message is displayed</t>
+  </si>
+  <si>
+    <t>user validate page title as 'Register'</t>
+  </si>
+  <si>
+    <t>user assert that error messag 'First Name is required' is displayed</t>
+  </si>
+  <si>
+    <t>user hits 'www.mfs.com' and choose role as 'Investment Professional'</t>
+  </si>
+  <si>
+    <t>Then click on 'Register'</t>
+  </si>
+  <si>
+    <t>user open 'www.mfs.com'</t>
+  </si>
+  <si>
+    <t>user click on 'Investment Professional'</t>
+  </si>
+  <si>
+    <t>user click on 'GO'</t>
+  </si>
+  <si>
+    <t>user click on 'Save my selection'</t>
+  </si>
+  <si>
+    <t>user click on 'Register'</t>
+  </si>
+  <si>
+    <t>user click on 'INVESTMENT PROFESSIONAL'</t>
+  </si>
+  <si>
+    <t>user click on 'UNITED STATES'</t>
+  </si>
+  <si>
+    <t>user click on 'I Agree'</t>
+  </si>
+  <si>
+    <t>user enter 'password' in 'password'</t>
+  </si>
+  <si>
+    <t>user ENTER 'BAT123' IN 'userName'</t>
+  </si>
+  <si>
+    <t>user Click on 'Complete'</t>
+  </si>
+  <si>
+    <t>user enter 'guntertest14' in 'password'</t>
+  </si>
+  <si>
+    <t>user validate that url contains 'mfs-aggressive-growth-allocation-fund'</t>
+  </si>
+  <si>
+    <t>user click on 'Login to MFS.com'</t>
+  </si>
+  <si>
+    <t>user click on 'Login'</t>
+  </si>
+  <si>
+    <t>user check that 'username' is enabled</t>
+  </si>
+  <si>
+    <t>user enter 'guntertest@mfs.co' in 'username'</t>
+  </si>
+  <si>
+    <t>select Fund</t>
+  </si>
+  <si>
+    <t>user selects 'MFS® Aggressive Growth Allocation Fund' from the dropdown 'js-product-dropdown'</t>
+  </si>
+  <si>
+    <t>user validate page title as 'Role Gate'</t>
+  </si>
+  <si>
+    <t>user open 'www.mfs.com/role-gate.html''</t>
   </si>
 </sst>
 </file>
@@ -311,15 +359,27 @@
       <family val="3"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -327,11 +387,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -347,6 +422,8 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -627,19 +704,244 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="62.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="65.28515625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="42.7109375" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="20.42578125" customWidth="1"/>
+    <col min="2" max="2" width="22.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>64</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet2"/>
+  <dimension ref="A1:C15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="45.5703125" customWidth="1"/>
+    <col min="2" max="2" width="70.85546875" customWidth="1"/>
+    <col min="3" max="3" width="61.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A9" s="2"/>
+      <c r="B9" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+      <c r="B10" s="2"/>
+      <c r="C10" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="B11" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+      <c r="B12" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
+        <v>77</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="43.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="85.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -655,85 +957,76 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C3" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C4" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B5" s="1" t="s">
-        <v>71</v>
-      </c>
       <c r="C5" s="1" t="s">
-        <v>72</v>
+        <v>95</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
       <c r="C6" s="1" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
       <c r="C7" s="1" t="s">
-        <v>74</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B8" s="1" t="s">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1" t="s">
         <v>75</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C9" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C10" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C11" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C12" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C13" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -741,12 +1034,154 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="89.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C3" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C5" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B16" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="42.85546875" customWidth="1"/>
+    <col min="2" max="2" width="53.140625" customWidth="1"/>
+    <col min="3" max="3" width="48.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -770,59 +1205,64 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>59</v>
+        <v>32</v>
       </c>
       <c r="B2" t="s">
-        <v>64</v>
+        <v>37</v>
       </c>
       <c r="C2" t="s">
-        <v>41</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3"/>
-      <c r="B3"/>
-      <c r="C3" t="s">
-        <v>42</v>
+      <c r="C3" s="1" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4"/>
-      <c r="B4" t="s">
-        <v>65</v>
-      </c>
+      <c r="B4"/>
       <c r="C4" t="s">
-        <v>43</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5"/>
       <c r="B5" t="s">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="C5" t="s">
-        <v>57</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6"/>
-      <c r="B6"/>
+      <c r="B6" t="s">
+        <v>39</v>
+      </c>
       <c r="C6" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7"/>
       <c r="B7"/>
       <c r="C7" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8"/>
       <c r="B8"/>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9"/>
+      <c r="B9"/>
+      <c r="C9" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -830,7 +1270,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C37"/>
   <sheetViews>
@@ -858,77 +1298,77 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>58</v>
+        <v>31</v>
       </c>
       <c r="B2" t="s">
-        <v>60</v>
+        <v>33</v>
       </c>
       <c r="C2" t="s">
-        <v>53</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="C3" t="s">
-        <v>54</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
-        <v>46</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
-        <v>47</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
-        <v>55</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
-        <v>56</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="C8" t="s">
-        <v>48</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
-        <v>52</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
-        <v>49</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
-        <v>50</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
-        <v>51</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>63</v>
+        <v>36</v>
       </c>
       <c r="C13" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -1015,357 +1455,6 @@
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:C12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:C6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="45.5703125" customWidth="1"/>
-    <col min="2" max="2" width="70.85546875" customWidth="1"/>
-    <col min="3" max="3" width="61.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
-      <c r="B7" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-      <c r="B8" s="2"/>
-      <c r="C8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="B9" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-      <c r="B10" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" t="s">
-        <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C10"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="33.5703125" customWidth="1"/>
-    <col min="2" max="2" width="54.5703125" customWidth="1"/>
-    <col min="3" max="3" width="41.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C4" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C5" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="62.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="65.28515625" customWidth="1"/>
-    <col min="3" max="3" width="42.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B4" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B5" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B6" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B7" s="1"/>
-      <c r="C7" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B8" s="1"/>
-      <c r="C8" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B9" s="1"/>
-      <c r="C9" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="42.85546875" customWidth="1"/>
-    <col min="2" max="2" width="53.140625" customWidth="1"/>
-    <col min="3" max="3" width="48.85546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>39</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1377,7 +1466,7 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1400,20 +1489,20 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>67</v>
+        <v>40</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>68</v>
+        <v>41</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>69</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1" t="s">
-        <v>70</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -1426,68 +1515,68 @@
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
-        <v>71</v>
+        <v>44</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>72</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1" t="s">
-        <v>73</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1" t="s">
-        <v>74</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1" t="s">
-        <v>75</v>
+        <v>48</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>76</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1" t="s">
-        <v>77</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1" t="s">
-        <v>78</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1" t="s">
-        <v>79</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1" t="s">
-        <v>80</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1" t="s">
-        <v>81</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>

--- a/testcases.xlsx
+++ b/testcases.xlsx
@@ -5,21 +5,23 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rohsinha2\Downloads\RoboTester-master\RoboTester-master\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\surpraka\Desktop\SecondCopy\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" tabRatio="752"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15150" windowHeight="2820" tabRatio="752"/>
   </bookViews>
   <sheets>
     <sheet name="Driver" sheetId="12" r:id="rId1"/>
-    <sheet name="MFS1" sheetId="2" r:id="rId2"/>
-    <sheet name="MFS2" sheetId="16" r:id="rId3"/>
-    <sheet name="MFS3" sheetId="13" r:id="rId4"/>
-    <sheet name="Webservice" sheetId="7" r:id="rId5"/>
-    <sheet name="cetera1" sheetId="5" r:id="rId6"/>
-    <sheet name="cetera2" sheetId="8" r:id="rId7"/>
-    <sheet name="Sapient" sheetId="11" r:id="rId8"/>
+    <sheet name="DoveSearch" sheetId="17" r:id="rId2"/>
+    <sheet name="AddToBag" sheetId="18" r:id="rId3"/>
+    <sheet name="MFS1" sheetId="2" r:id="rId4"/>
+    <sheet name="MFS2" sheetId="3" r:id="rId5"/>
+    <sheet name="MFS3" sheetId="4" r:id="rId6"/>
+    <sheet name="cetera1" sheetId="5" r:id="rId7"/>
+    <sheet name="cetera2" sheetId="8" r:id="rId8"/>
+    <sheet name="Webservice" sheetId="7" r:id="rId9"/>
+    <sheet name="Sapient" sheetId="11" r:id="rId10"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -31,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="130">
   <si>
     <t>click on 'Careers'</t>
   </si>
@@ -214,9 +216,6 @@
     <t>cetera2</t>
   </si>
   <si>
-    <t>RegressionExecutionFlag</t>
-  </si>
-  <si>
     <t>MFS1</t>
   </si>
   <si>
@@ -241,9 +240,6 @@
     <t>Assert 'logo' is displayed</t>
   </si>
   <si>
-    <t>validate Login Functionality</t>
-  </si>
-  <si>
     <t>Visit mfs.com</t>
   </si>
   <si>
@@ -265,86 +261,180 @@
     <t>Assert that error 'Please log in with a valid user name and password' message is displayed</t>
   </si>
   <si>
+    <t>select Fund</t>
+  </si>
+  <si>
+    <t>user selects 'MFS® Aggressive Growth Allocation Fund' from the dropdown 'js-product-dropdown'</t>
+  </si>
+  <si>
+    <t>user validate that 'Compressed Flexible Hold Hair Spray' link is displayed</t>
+  </si>
+  <si>
+    <t>user clicks on 'Compressed Flexible Hold Hair Spray' link</t>
+  </si>
+  <si>
+    <t>user selects 'Product' from the dropdown 'filterBy'</t>
+  </si>
+  <si>
+    <t>select product from the dropdown
+click on the first product</t>
+  </si>
+  <si>
+    <t>user click on 'Search Button'</t>
+  </si>
+  <si>
+    <t>user enter the text as 'Hair' in the 'Search Field'</t>
+  </si>
+  <si>
+    <t>user click on 'Search' button</t>
+  </si>
+  <si>
+    <t>click on Search button and enter text</t>
+  </si>
+  <si>
+    <t>user open 'www.dove.com/us/en/home.html'</t>
+  </si>
+  <si>
+    <t>Visit dove.com</t>
+  </si>
+  <si>
+    <t>validate Search Result</t>
+  </si>
+  <si>
+    <t>user open 'www.caress.us/us/en/products/body-wash/sheer-twilight-with-pump-254-oz.html'</t>
+  </si>
+  <si>
+    <t>click on Add to bag</t>
+  </si>
+  <si>
+    <t>user click on 'Add To Bag' button</t>
+  </si>
+  <si>
+    <t>user click on 'Retailer Dropdown' button</t>
+  </si>
+  <si>
+    <t>user click on 'Walmart Option' button</t>
+  </si>
+  <si>
+    <t>user click on 'Size Dropdown' button</t>
+  </si>
+  <si>
+    <t>user click on 'ADD TO BAG' button</t>
+  </si>
+  <si>
+    <t>DoveSearch</t>
+  </si>
+  <si>
+    <t>AddToBag</t>
+  </si>
+  <si>
+    <t>user click on '18 oz Option' button</t>
+  </si>
+  <si>
+    <t>EndToEndExecutionFlag[N]</t>
+  </si>
+  <si>
+    <t>RegressionExecutionFlag[Y]</t>
+  </si>
+  <si>
+    <t>get 'https://unileverna.tt.omtrdc.net/m2/unileverna/mbox/json?mbox=target-global-mbox&amp;mboxSession=01204fe16906418cb68cb9d42cd81e61' with 'no' parameters</t>
+  </si>
+  <si>
+    <t>get 'https://data.gingersoftware.com/clientdata/jsonSecured/GetApprovalCount?apiKey=BrowserStandalone&amp;lang=US&amp;userIdentifier=dffd08f4-e02e-45bf-bb48-a72d382bb59e&amp;authToken=01-1570440200471-9292' with 'no' parameters</t>
+  </si>
+  <si>
+    <t>user hits 'www.mfs.com' and choose role as 'Investment Professional'</t>
+  </si>
+  <si>
+    <t>user open 'www.mfs.com'</t>
+  </si>
+  <si>
+    <t>Then click on 'Register'</t>
+  </si>
+  <si>
+    <t>user validate page title as 'Role Gate'</t>
+  </si>
+  <si>
+    <t>user click on 'Investment Professional'</t>
+  </si>
+  <si>
+    <t>user click on 'GO'</t>
+  </si>
+  <si>
+    <t>user click on 'Save my selection'</t>
+  </si>
+  <si>
+    <t>user click on 'Register'</t>
+  </si>
+  <si>
     <t>user validate page title as 'Register'</t>
   </si>
   <si>
+    <t>user click on 'INVESTMENT PROFESSIONAL'</t>
+  </si>
+  <si>
+    <t>user click on 'UNITED STATES'</t>
+  </si>
+  <si>
+    <t>user click on 'I Agree'</t>
+  </si>
+  <si>
+    <t>user enter 'password' in 'password'</t>
+  </si>
+  <si>
+    <t>user ENTER 'BAT123' IN 'userName'</t>
+  </si>
+  <si>
+    <t>user Click on 'Complete'</t>
+  </si>
+  <si>
     <t>user assert that error messag 'First Name is required' is displayed</t>
   </si>
   <si>
-    <t>user hits 'www.mfs.com' and choose role as 'Investment Professional'</t>
-  </si>
-  <si>
-    <t>Then click on 'Register'</t>
-  </si>
-  <si>
-    <t>user open 'www.mfs.com'</t>
-  </si>
-  <si>
-    <t>user click on 'Investment Professional'</t>
-  </si>
-  <si>
-    <t>user click on 'GO'</t>
-  </si>
-  <si>
-    <t>user click on 'Save my selection'</t>
-  </si>
-  <si>
-    <t>user click on 'Register'</t>
-  </si>
-  <si>
-    <t>user click on 'INVESTMENT PROFESSIONAL'</t>
-  </si>
-  <si>
-    <t>user click on 'UNITED STATES'</t>
-  </si>
-  <si>
-    <t>user click on 'I Agree'</t>
-  </si>
-  <si>
-    <t>user enter 'password' in 'password'</t>
-  </si>
-  <si>
-    <t>user ENTER 'BAT123' IN 'userName'</t>
-  </si>
-  <si>
-    <t>user Click on 'Complete'</t>
+    <t>user open 'www.mfs.com/role-gate.html''</t>
+  </si>
+  <si>
+    <t>user click on 'Login'</t>
+  </si>
+  <si>
+    <t>user check that 'username' is enabled</t>
+  </si>
+  <si>
+    <t>user enter 'guntertest@mfs.co' in 'username'</t>
   </si>
   <si>
     <t>user enter 'guntertest14' in 'password'</t>
   </si>
   <si>
+    <t>user click on 'Login to MFS.com'</t>
+  </si>
+  <si>
     <t>user validate that url contains 'mfs-aggressive-growth-allocation-fund'</t>
   </si>
   <si>
-    <t>user click on 'Login to MFS.com'</t>
-  </si>
-  <si>
-    <t>user click on 'Login'</t>
-  </si>
-  <si>
-    <t>user check that 'username' is enabled</t>
-  </si>
-  <si>
-    <t>user enter 'guntertest@mfs.co' in 'username'</t>
-  </si>
-  <si>
-    <t>select Fund</t>
-  </si>
-  <si>
-    <t>user selects 'MFS® Aggressive Growth Allocation Fund' from the dropdown 'js-product-dropdown'</t>
-  </si>
-  <si>
-    <t>user validate page title as 'Role Gate'</t>
-  </si>
-  <si>
-    <t>user open 'www.mfs.com/role-gate.html''</t>
+    <t>Select Fund From Drop Down</t>
+  </si>
+  <si>
+    <t>user click on 'VIEW CART' button</t>
+  </si>
+  <si>
+    <t>validate that 'Caress Sheer Twilight Body Wash, 18 oz' is displayed</t>
+  </si>
+  <si>
+    <t>validate Add To Bag</t>
+  </si>
+  <si>
+    <t>validate that 'Sub Total' is equal to '$3.97'</t>
+  </si>
+  <si>
+    <t>click on View Cart</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -355,6 +445,12 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF222222"/>
       <name val="Consolas"/>
       <family val="3"/>
     </font>
@@ -406,14 +502,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -424,6 +517,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -704,84 +806,128 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="E14" activeCellId="1" sqref="C10 E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.42578125" customWidth="1"/>
-    <col min="2" max="2" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="8" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B1" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>57</v>
       </c>
       <c r="B2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>58</v>
       </c>
       <c r="B3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B4" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C4" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>63</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>94</v>
+      </c>
+      <c r="B9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C9" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>63</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>95</v>
+      </c>
+      <c r="B10" t="s">
         <v>64</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
+      <c r="C10" t="s">
+        <v>64</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -789,10 +935,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
@@ -800,128 +945,208 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="45.5703125" customWidth="1"/>
-    <col min="2" max="2" width="70.85546875" customWidth="1"/>
-    <col min="3" max="3" width="61.140625" customWidth="1"/>
+    <col min="1" max="1" width="38.42578125" customWidth="1"/>
+    <col min="2" max="2" width="49" customWidth="1"/>
+    <col min="3" max="3" width="45.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="C2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2" t="s">
-        <v>79</v>
-      </c>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
       <c r="C3" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="25.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="214.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C4" s="1" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="5" spans="1:3" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C5" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B6" s="8" t="s">
+        <v>79</v>
+      </c>
       <c r="C6" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="6" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C7" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C8" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
-      <c r="B9" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-      <c r="B10" s="2"/>
-      <c r="C10" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-      <c r="B11" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-      <c r="B12" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C13" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C15" t="s">
-        <v>77</v>
-      </c>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C9" s="11" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C10" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C11" s="9"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E14" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -934,14 +1159,15 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="43.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="85.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="87.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -957,76 +1183,64 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>74</v>
+        <v>127</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>69</v>
+        <v>85</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
+        <v>88</v>
+      </c>
       <c r="C3" s="1" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
       <c r="C4" s="1" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1" t="s">
-        <v>70</v>
-      </c>
       <c r="C5" s="1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
       <c r="C6" s="1" t="s">
-        <v>73</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
       <c r="C7" s="1" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
       <c r="C8" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
+      <c r="B9" s="1" t="s">
+        <v>129</v>
+      </c>
       <c r="C9" s="1" t="s">
-        <v>72</v>
+        <v>125</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
       <c r="C10" s="1" t="s">
-        <v>93</v>
+        <v>126</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
       <c r="C11" s="1" t="s">
-        <v>75</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -1036,16 +1250,263 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C16"/>
+  <sheetPr codeName="Sheet2"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="45.5703125" customWidth="1"/>
+    <col min="2" max="2" width="70.85546875" customWidth="1"/>
+    <col min="3" max="3" width="61.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="5" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2"/>
+      <c r="B9" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="B11" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+      <c r="B12" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="33.5703125" customWidth="1"/>
+    <col min="2" max="2" width="54.5703125" customWidth="1"/>
+    <col min="3" max="3" width="82.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C3" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C4" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="62.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="65.28515625" customWidth="1"/>
     <col min="3" max="3" width="89.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1062,121 +1523,76 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>68</v>
+        <v>124</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B3" s="1"/>
       <c r="C3" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
+        <v>104</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C4" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B5" s="1"/>
       <c r="C5" s="1" t="s">
-        <v>82</v>
+        <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
       <c r="B8" s="1" t="s">
-        <v>97</v>
+        <v>74</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>98</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
       <c r="B9" s="1"/>
-      <c r="C9" t="s">
-        <v>92</v>
+      <c r="C9" s="1" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
       <c r="C10" s="1"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B11" s="1"/>
       <c r="C11" s="1"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B16" s="1"/>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C12" s="1"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C13" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="42.85546875" customWidth="1"/>
-    <col min="2" max="2" width="53.140625" customWidth="1"/>
-    <col min="3" max="3" width="48.85546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C9"/>
   <sheetViews>
@@ -1216,14 +1632,14 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C3" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4"/>
       <c r="B4"/>
       <c r="C4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -1270,7 +1686,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C37"/>
   <sheetViews>
@@ -1414,11 +1830,11 @@
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
-      <c r="C29" s="6"/>
+      <c r="C29" s="5"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
-      <c r="B30" s="5"/>
+      <c r="B30" s="4"/>
       <c r="C30" s="1"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -1428,17 +1844,17 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
-      <c r="B32" s="4"/>
+      <c r="B32" s="3"/>
       <c r="C32" s="1"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
-      <c r="B33" s="5"/>
+      <c r="B33" s="4"/>
       <c r="C33" s="1"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
-      <c r="B34" s="4"/>
+      <c r="B34" s="3"/>
       <c r="C34" s="1"/>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -1461,24 +1877,24 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="38.42578125" customWidth="1"/>
-    <col min="2" max="2" width="49" customWidth="1"/>
-    <col min="3" max="3" width="45.5703125" customWidth="1"/>
+    <col min="1" max="1" width="42.85546875" customWidth="1"/>
+    <col min="2" max="2" width="79" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="90.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>2</v>
@@ -1487,99 +1903,22 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1" t="s">
-        <v>54</v>
-      </c>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B16" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/testcases.xlsx
+++ b/testcases.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\surpraka\Desktop\SecondCopy\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\surpraka\Desktop\RoboTester\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15150" windowHeight="2820" tabRatio="752"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" tabRatio="752"/>
   </bookViews>
   <sheets>
     <sheet name="Driver" sheetId="12" r:id="rId1"/>
@@ -23,6 +23,9 @@
     <sheet name="Webservice" sheetId="7" r:id="rId9"/>
     <sheet name="Sapient" sheetId="11" r:id="rId10"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Driver!$A$1:$C$10</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -475,12 +478,25 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -515,8 +531,6 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -526,6 +540,8 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -809,7 +825,7 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" activeCellId="1" sqref="C10 E14"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -820,13 +836,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="12" t="s">
         <v>98</v>
       </c>
     </row>
@@ -881,7 +897,7 @@
       <c r="B6" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="10" t="s">
         <v>64</v>
       </c>
     </row>
@@ -1115,7 +1131,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="6" t="s">
         <v>79</v>
       </c>
       <c r="C6" s="1" t="s">
@@ -1133,7 +1149,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="9" t="s">
         <v>100</v>
       </c>
     </row>
@@ -1143,10 +1159,10 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C11" s="9"/>
+      <c r="C11" s="7"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E14" s="10"/>
+      <c r="E14" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1915,7 +1931,7 @@
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B16" s="9"/>
+      <c r="B16" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/testcases.xlsx
+++ b/testcases.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="124">
   <si>
     <t>click on 'Careers'</t>
   </si>
@@ -307,33 +307,12 @@
     <t>user open 'www.caress.us/us/en/products/body-wash/sheer-twilight-with-pump-254-oz.html'</t>
   </si>
   <si>
-    <t>click on Add to bag</t>
-  </si>
-  <si>
-    <t>user click on 'Add To Bag' button</t>
-  </si>
-  <si>
-    <t>user click on 'Retailer Dropdown' button</t>
-  </si>
-  <si>
-    <t>user click on 'Walmart Option' button</t>
-  </si>
-  <si>
-    <t>user click on 'Size Dropdown' button</t>
-  </si>
-  <si>
-    <t>user click on 'ADD TO BAG' button</t>
-  </si>
-  <si>
     <t>DoveSearch</t>
   </si>
   <si>
     <t>AddToBag</t>
   </si>
   <si>
-    <t>user click on '18 oz Option' button</t>
-  </si>
-  <si>
     <t>EndToEndExecutionFlag[N]</t>
   </si>
   <si>
@@ -418,9 +397,6 @@
     <t>Select Fund From Drop Down</t>
   </si>
   <si>
-    <t>user click on 'VIEW CART' button</t>
-  </si>
-  <si>
     <t>validate that 'Caress Sheer Twilight Body Wash, 18 oz' is displayed</t>
   </si>
   <si>
@@ -430,7 +406,13 @@
     <t>validate that 'Sub Total' is equal to '$3.97'</t>
   </si>
   <si>
-    <t>click on View Cart</t>
+    <t>user hover on 'Add to bag'</t>
+  </si>
+  <si>
+    <t>user clicks on 'VIEW CART' button</t>
+  </si>
+  <si>
+    <t>user hovers to 'ADD TO BAG' button on top right</t>
   </si>
 </sst>
 </file>
@@ -825,7 +807,7 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -840,10 +822,10 @@
         <v>1</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -898,7 +880,7 @@
         <v>64</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -925,18 +907,18 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="B9" t="s">
         <v>64</v>
       </c>
       <c r="C9" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="B10" t="s">
         <v>64</v>
@@ -1079,7 +1061,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1150,12 +1132,12 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C9" s="9" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C10" s="1" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -1172,10 +1154,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1199,7 +1181,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>85</v>
@@ -1209,54 +1191,28 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B3" s="1" t="s">
-        <v>88</v>
-      </c>
       <c r="C3" s="1" t="s">
-        <v>89</v>
+        <v>123</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C4" s="1" t="s">
-        <v>90</v>
+        <v>122</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C5" s="1" t="s">
-        <v>91</v>
+        <v>118</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C6" s="1" t="s">
-        <v>92</v>
+        <v>120</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C7" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C8" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B9" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C10" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C11" s="1" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -1270,7 +1226,7 @@
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1296,54 +1252,54 @@
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:3" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
     </row>
     <row r="4" spans="1:3" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="1" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
     </row>
     <row r="5" spans="1:3" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="1" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="1" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="5" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="1" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1352,14 +1308,14 @@
         <v>5</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="2"/>
       <c r="C10" s="1" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -1368,7 +1324,7 @@
         <v>6</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -1377,14 +1333,14 @@
         <v>7</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -1393,14 +1349,14 @@
         <v>8</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -1443,17 +1399,17 @@
         <v>67</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C3" s="1" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
     </row>
     <row r="4" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C4" s="1" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
     </row>
     <row r="5" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1461,7 +1417,7 @@
         <v>68</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -1475,14 +1431,14 @@
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -1496,7 +1452,7 @@
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -1515,8 +1471,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1539,30 +1495,30 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>67</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B3" s="1"/>
       <c r="C3" s="1" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
     </row>
     <row r="4" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C4" s="1" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B5" s="1"/>
       <c r="C5" s="1" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -1588,7 +1544,7 @@
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">

--- a/testcases.xlsx
+++ b/testcases.xlsx
@@ -22,6 +22,7 @@
     <sheet name="cetera2" sheetId="8" r:id="rId8"/>
     <sheet name="Webservice" sheetId="7" r:id="rId9"/>
     <sheet name="Sapient" sheetId="11" r:id="rId10"/>
+    <sheet name="Sheet3" sheetId="21" r:id="rId11"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Driver!$A$1:$C$10</definedName>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="135">
   <si>
     <t>click on 'Careers'</t>
   </si>
@@ -93,9 +94,6 @@
     <t>click on 'Client Login'</t>
   </si>
   <si>
-    <t>Enter 'Batman' in 'userId'</t>
-  </si>
-  <si>
     <t>Enter 'Daredevil' in 'password'</t>
   </si>
   <si>
@@ -413,6 +411,42 @@
   </si>
   <si>
     <t>user hovers to 'ADD TO BAG' button on top right</t>
+  </si>
+  <si>
+    <t>Browser</t>
+  </si>
+  <si>
+    <t>Chrome</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>Windows</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>Enter 'Batman' in 'userId' field</t>
+  </si>
+  <si>
+    <t>Firefox</t>
+  </si>
+  <si>
+    <t>IE</t>
+  </si>
+  <si>
+    <t>Linux</t>
+  </si>
+  <si>
+    <t>Mac</t>
+  </si>
+  <si>
+    <t>EndToEndExecutionFlag[Y]</t>
+  </si>
+  <si>
+    <t>RegressionExecutionFlag[N]</t>
   </si>
 </sst>
 </file>
@@ -804,10 +838,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -817,119 +851,209 @@
     <col min="3" max="3" width="25.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>90</v>
+        <v>133</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+        <v>134</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>57</v>
       </c>
-      <c r="B2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="B3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>58</v>
       </c>
-      <c r="B3" t="s">
-        <v>64</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="B4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="B5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B5" t="s">
-        <v>64</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="B6" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>61</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="B7" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>62</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="B8" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>64</v>
-      </c>
       <c r="C8" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>87</v>
+      </c>
+      <c r="B9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C9" t="s">
+        <v>63</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>88</v>
       </c>
-      <c r="B9" t="s">
-        <v>64</v>
-      </c>
-      <c r="C9" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>89</v>
-      </c>
       <c r="B10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C10" t="s">
-        <v>64</v>
+        <v>63</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>127</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Sheet3!$A$1:$A$4</xm:f>
+          </x14:formula1>
+          <xm:sqref>D2:D10</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Sheet3!$B$1:$B$4</xm:f>
+          </x14:formula1>
+          <xm:sqref>E2:E10</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Sheet3!$D$1:$D$2</xm:f>
+          </x14:formula1>
+          <xm:sqref>C1</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Sheet3!$C$1:$C$2</xm:f>
+          </x14:formula1>
+          <xm:sqref>B1</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -961,20 +1085,20 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -987,68 +1111,131 @@
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>48</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="32.28515625" customWidth="1"/>
+    <col min="4" max="4" width="26" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>130</v>
+      </c>
+      <c r="B4" t="s">
+        <v>132</v>
       </c>
     </row>
   </sheetData>
@@ -1061,7 +1248,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1085,59 +1272,59 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C4" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C5" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B6" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C7" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C8" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C9" s="9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -1181,38 +1368,38 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C3" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C4" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C5" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C6" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C7" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -1226,7 +1413,7 @@
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1252,54 +1439,54 @@
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>94</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:3" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>96</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="4" spans="1:3" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:3" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1308,14 +1495,14 @@
         <v>5</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="2"/>
       <c r="C10" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -1324,7 +1511,7 @@
         <v>6</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -1333,14 +1520,14 @@
         <v>7</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -1349,14 +1536,14 @@
         <v>8</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -1393,73 +1580,73 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="3" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C3" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="4" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C4" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="5" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -1495,56 +1682,56 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B3" s="1"/>
       <c r="C3" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="4" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C4" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B5" s="1"/>
       <c r="C5" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B6" s="1"/>
       <c r="C6" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>74</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -1569,7 +1756,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1593,10 +1780,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C2" t="s">
         <v>15</v>
@@ -1604,20 +1791,20 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C3" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4"/>
       <c r="B4"/>
       <c r="C4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5"/>
       <c r="B5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C5" t="s">
         <v>16</v>
@@ -1626,24 +1813,24 @@
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6"/>
       <c r="B6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7"/>
       <c r="B7"/>
       <c r="C7" t="s">
-        <v>17</v>
+        <v>128</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8"/>
       <c r="B8"/>
       <c r="C8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -1686,74 +1873,74 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C13" t="s">
         <v>9</v>

--- a/testcases.xlsx
+++ b/testcases.xlsx
@@ -841,7 +841,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -856,10 +856,10 @@
         <v>1</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>133</v>
+        <v>89</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>134</v>
+        <v>90</v>
       </c>
       <c r="D1" s="12" t="s">
         <v>123</v>

--- a/testcases.xlsx
+++ b/testcases.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\surpraka\Desktop\RoboTester\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\surpraka\Desktop\RobotTester\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" tabRatio="752"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20430" windowHeight="7560" tabRatio="752"/>
   </bookViews>
   <sheets>
     <sheet name="Driver" sheetId="12" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="134">
   <si>
     <t>click on 'Careers'</t>
   </si>
@@ -73,16 +73,10 @@
     <t>click on 'Register'</t>
   </si>
   <si>
-    <t>Verify</t>
-  </si>
-  <si>
     <t>click on 'Continue'</t>
   </si>
   <si>
     <t>Check Get service for math.api</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> get 'https://api.mathjs.org/v4/?expr=2%2B3*sqrt(4)' with 'no' parameters and verify response is '8'</t>
   </si>
   <si>
     <t>Send the arithmetic expression query and check the return value with expected result</t>
@@ -404,15 +398,9 @@
     <t>validate that 'Sub Total' is equal to '$3.97'</t>
   </si>
   <si>
-    <t>user hover on 'Add to bag'</t>
-  </si>
-  <si>
     <t>user clicks on 'VIEW CART' button</t>
   </si>
   <si>
-    <t>user hovers to 'ADD TO BAG' button on top right</t>
-  </si>
-  <si>
     <t>Browser</t>
   </si>
   <si>
@@ -447,6 +435,15 @@
   </si>
   <si>
     <t>RegressionExecutionFlag[N]</t>
+  </si>
+  <si>
+    <t>user click on  common 'GO'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> get 'https://api.mathjs.org/v4/?expr=2%2B3*sqrt(4)' with 'no' parameters and response is '8'</t>
+  </si>
+  <si>
+    <t>user hovers to 'ADD TO BAG ICON' icon</t>
   </si>
 </sst>
 </file>
@@ -841,7 +838,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -856,169 +853,169 @@
         <v>1</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D2" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="E2" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>63</v>
-      </c>
       <c r="D7" s="1" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B9" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C9" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B10" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C10" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -1062,7 +1059,7 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1085,20 +1082,20 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -1111,68 +1108,68 @@
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -1185,7 +1182,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1196,46 +1193,46 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B1" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B2" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B3" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B4" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -1248,7 +1245,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1272,59 +1269,59 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C4" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C5" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B6" s="6" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C7" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C8" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C9" s="9" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C10" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -1341,10 +1338,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1368,38 +1365,33 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>84</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C3" s="1" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C4" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C5" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C6" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C7" s="1" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -1413,7 +1405,7 @@
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1439,54 +1431,54 @@
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3" spans="1:3" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4" spans="1:3" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:3" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="1" t="s">
-        <v>98</v>
+        <v>131</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1495,14 +1487,14 @@
         <v>5</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="2"/>
       <c r="C10" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -1511,7 +1503,7 @@
         <v>6</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -1520,14 +1512,14 @@
         <v>7</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -1536,14 +1528,14 @@
         <v>8</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -1557,12 +1549,12 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.5703125" customWidth="1"/>
+    <col min="1" max="1" width="48.85546875" customWidth="1"/>
     <col min="2" max="2" width="54.5703125" customWidth="1"/>
     <col min="3" max="3" width="82.140625" bestFit="1" customWidth="1"/>
   </cols>
@@ -1580,73 +1572,73 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="3" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C3" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C4" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="5" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -1659,14 +1651,14 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="62.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="65.28515625" customWidth="1"/>
-    <col min="3" max="3" width="89.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="97.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -1682,56 +1674,56 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B3" s="1"/>
       <c r="C3" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C4" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B5" s="1"/>
       <c r="C5" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B6" s="1"/>
       <c r="C6" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -1780,64 +1772,64 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C3" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4"/>
       <c r="B4"/>
       <c r="C4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5"/>
       <c r="B5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6"/>
       <c r="B6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7"/>
       <c r="B7"/>
       <c r="C7" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8"/>
       <c r="B8"/>
       <c r="C8" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9"/>
       <c r="B9"/>
       <c r="C9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1873,74 +1865,74 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" t="s">
         <v>30</v>
       </c>
-      <c r="B2" t="s">
-        <v>32</v>
-      </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C13" t="s">
         <v>9</v>
@@ -2041,7 +2033,7 @@
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2053,7 +2045,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>2</v>
@@ -2064,13 +2056,13 @@
     </row>
     <row r="2" spans="1:3" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="C2" s="1" t="s">
-        <v>13</v>
+        <v>132</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">

--- a/testcases.xlsx
+++ b/testcases.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\surpraka\Desktop\RoboTester\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\surpraka\Desktop\RobotTester\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" tabRatio="752"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" tabRatio="752" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Driver" sheetId="12" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="134">
   <si>
     <t>click on 'Careers'</t>
   </si>
@@ -73,16 +73,10 @@
     <t>click on 'Register'</t>
   </si>
   <si>
-    <t>Verify</t>
-  </si>
-  <si>
     <t>click on 'Continue'</t>
   </si>
   <si>
     <t>Check Get service for math.api</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> get 'https://api.mathjs.org/v4/?expr=2%2B3*sqrt(4)' with 'no' parameters and verify response is '8'</t>
   </si>
   <si>
     <t>Send the arithmetic expression query and check the return value with expected result</t>
@@ -293,9 +287,6 @@
     <t>click on Search button and enter text</t>
   </si>
   <si>
-    <t>user open 'www.dove.com/us/en/home.html'</t>
-  </si>
-  <si>
     <t>Visit dove.com</t>
   </si>
   <si>
@@ -404,15 +395,9 @@
     <t>validate that 'Sub Total' is equal to '$3.97'</t>
   </si>
   <si>
-    <t>user hover on 'Add to bag'</t>
-  </si>
-  <si>
     <t>user clicks on 'VIEW CART' button</t>
   </si>
   <si>
-    <t>user hovers to 'ADD TO BAG' button on top right</t>
-  </si>
-  <si>
     <t>Browser</t>
   </si>
   <si>
@@ -447,6 +432,18 @@
   </si>
   <si>
     <t>RegressionExecutionFlag[N]</t>
+  </si>
+  <si>
+    <t>user click on  common 'GO'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> get 'https://api.mathjs.org/v4/?expr=2%2B3*sqrt(4)' with 'no' parameters and response is '8'</t>
+  </si>
+  <si>
+    <t>user hovers to 'ADD TO BAG ICON' icon</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'www.dove.com/us/en/home.html' opened by user</t>
   </si>
 </sst>
 </file>
@@ -534,7 +531,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -555,7 +552,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
@@ -840,8 +836,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -852,173 +848,173 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="C1" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="D1" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="E1" s="12" t="s">
-        <v>125</v>
+      <c r="B1" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D2" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="E2" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>55</v>
+        <v>61</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>124</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>63</v>
-      </c>
       <c r="D7" s="1" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B9" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C9" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B10" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C10" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -1062,7 +1058,7 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1085,20 +1081,20 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -1111,68 +1107,68 @@
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -1185,7 +1181,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1196,46 +1192,46 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="B1" t="s">
-        <v>127</v>
-      </c>
-      <c r="C1" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="D1" s="12" t="s">
-        <v>134</v>
+        <v>122</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="B2" t="s">
-        <v>126</v>
-      </c>
-      <c r="C2" s="12" t="s">
-        <v>133</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>90</v>
+        <v>121</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="B3" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="B4" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -1247,8 +1243,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1272,59 +1268,59 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>83</v>
+        <v>133</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C4" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C5" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B6" s="6" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C7" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C8" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C9" s="9" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C10" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -1341,10 +1337,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1368,38 +1364,33 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C3" s="1" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C4" s="1" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C5" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C6" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C7" s="1" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -1413,7 +1404,7 @@
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1439,54 +1430,54 @@
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3" spans="1:3" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="4" spans="1:3" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5" spans="1:3" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="1" t="s">
-        <v>98</v>
+        <v>130</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="5" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1495,14 +1486,14 @@
         <v>5</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="2"/>
       <c r="C10" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -1511,7 +1502,7 @@
         <v>6</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -1520,14 +1511,14 @@
         <v>7</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -1536,14 +1527,14 @@
         <v>8</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -1557,12 +1548,12 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.5703125" customWidth="1"/>
+    <col min="1" max="1" width="48.85546875" customWidth="1"/>
     <col min="2" max="2" width="54.5703125" customWidth="1"/>
     <col min="3" max="3" width="82.140625" bestFit="1" customWidth="1"/>
   </cols>
@@ -1580,73 +1571,73 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="3" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C3" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="4" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C4" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="5" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -1659,14 +1650,14 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="62.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="65.28515625" customWidth="1"/>
-    <col min="3" max="3" width="89.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="97.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -1682,56 +1673,56 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B3" s="1"/>
       <c r="C3" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="4" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C4" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B5" s="1"/>
       <c r="C5" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B6" s="1"/>
       <c r="C6" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -1780,64 +1771,64 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C3" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4"/>
       <c r="B4"/>
       <c r="C4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5"/>
       <c r="B5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6"/>
       <c r="B6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7"/>
       <c r="B7"/>
       <c r="C7" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8"/>
       <c r="B8"/>
       <c r="C8" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9"/>
       <c r="B9"/>
       <c r="C9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1873,74 +1864,74 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" t="s">
         <v>30</v>
       </c>
-      <c r="B2" t="s">
-        <v>32</v>
-      </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C13" t="s">
         <v>9</v>
@@ -2041,7 +2032,7 @@
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2053,7 +2044,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>2</v>
@@ -2064,13 +2055,13 @@
     </row>
     <row r="2" spans="1:3" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="C2" s="1" t="s">
-        <v>13</v>
+        <v>131</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">

--- a/testcases.xlsx
+++ b/testcases.xlsx
@@ -281,9 +281,6 @@
     <t>user enter the text as 'Hair' in the 'Search Field'</t>
   </si>
   <si>
-    <t>user click on 'Search' button</t>
-  </si>
-  <si>
     <t>click on Search button and enter text</t>
   </si>
   <si>
@@ -444,6 +441,9 @@
   </si>
   <si>
     <t xml:space="preserve"> 'www.dove.com/us/en/home.html' opened by user</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'Search' button is clicked by user</t>
   </si>
 </sst>
 </file>
@@ -852,16 +852,16 @@
         <v>1</v>
       </c>
       <c r="B1" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="C1" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="C1" s="11" t="s">
-        <v>87</v>
-      </c>
       <c r="D1" s="11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -875,10 +875,10 @@
         <v>61</v>
       </c>
       <c r="D2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -892,10 +892,10 @@
         <v>61</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -909,10 +909,10 @@
         <v>61</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -926,10 +926,10 @@
         <v>61</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -943,10 +943,10 @@
         <v>61</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -960,10 +960,10 @@
         <v>61</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -977,15 +977,15 @@
         <v>61</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B9" t="s">
         <v>61</v>
@@ -994,15 +994,15 @@
         <v>53</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B10" t="s">
         <v>61</v>
@@ -1011,10 +1011,10 @@
         <v>61</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -1192,46 +1192,46 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -1243,14 +1243,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.85546875" style="1" customWidth="1"/>
     <col min="3" max="3" width="214.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="16384" width="9.140625" style="1"/>
   </cols>
@@ -1268,21 +1268,21 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C3" s="1" t="s">
         <v>79</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -1315,12 +1315,12 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C9" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C10" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -1364,33 +1364,33 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C3" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C4" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C5" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C6" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -1430,54 +1430,54 @@
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>90</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="3" spans="1:3" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>92</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="4" spans="1:3" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:3" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1486,14 +1486,14 @@
         <v>5</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="2"/>
       <c r="C10" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -1502,7 +1502,7 @@
         <v>6</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -1511,14 +1511,14 @@
         <v>7</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -1527,14 +1527,14 @@
         <v>8</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -1577,17 +1577,17 @@
         <v>64</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="3" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C3" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="4" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C4" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="5" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1595,7 +1595,7 @@
         <v>65</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -1609,14 +1609,14 @@
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -1630,7 +1630,7 @@
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -1673,30 +1673,30 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>64</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B3" s="1"/>
       <c r="C3" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="4" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C4" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B5" s="1"/>
       <c r="C5" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -1722,7 +1722,7 @@
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -1814,7 +1814,7 @@
       <c r="A7"/>
       <c r="B7"/>
       <c r="C7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -2061,7 +2061,7 @@
         <v>12</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">

--- a/testcases.xlsx
+++ b/testcases.xlsx
@@ -9,23 +9,24 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" tabRatio="752" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" tabRatio="752"/>
   </bookViews>
   <sheets>
     <sheet name="Driver" sheetId="12" r:id="rId1"/>
     <sheet name="DoveSearch" sheetId="17" r:id="rId2"/>
     <sheet name="AddToBag" sheetId="18" r:id="rId3"/>
-    <sheet name="MFS1" sheetId="2" r:id="rId4"/>
-    <sheet name="MFS2" sheetId="3" r:id="rId5"/>
-    <sheet name="MFS3" sheetId="4" r:id="rId6"/>
-    <sheet name="cetera1" sheetId="5" r:id="rId7"/>
-    <sheet name="cetera2" sheetId="8" r:id="rId8"/>
-    <sheet name="Webservice" sheetId="7" r:id="rId9"/>
-    <sheet name="Sapient" sheetId="11" r:id="rId10"/>
-    <sheet name="Sheet3" sheetId="21" r:id="rId11"/>
+    <sheet name="Sheet1" sheetId="23" r:id="rId4"/>
+    <sheet name="MFS1" sheetId="2" r:id="rId5"/>
+    <sheet name="MFS2" sheetId="3" r:id="rId6"/>
+    <sheet name="MFS3" sheetId="4" r:id="rId7"/>
+    <sheet name="cetera1" sheetId="5" r:id="rId8"/>
+    <sheet name="cetera2" sheetId="8" r:id="rId9"/>
+    <sheet name="Webservice" sheetId="7" r:id="rId10"/>
+    <sheet name="Sapient" sheetId="11" r:id="rId11"/>
+    <sheet name="Sheet3" sheetId="21" r:id="rId12"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Driver!$A$1:$C$10</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Driver!$A$1:$B$10</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="138">
   <si>
     <t>click on 'Careers'</t>
   </si>
@@ -275,9 +276,6 @@
 click on the first product</t>
   </si>
   <si>
-    <t>user click on 'Search Button'</t>
-  </si>
-  <si>
     <t>user enter the text as 'Hair' in the 'Search Field'</t>
   </si>
   <si>
@@ -444,6 +442,21 @@
   </si>
   <si>
     <t xml:space="preserve"> 'Search' button is clicked by user</t>
+  </si>
+  <si>
+    <t>user click on 'Top Search'</t>
+  </si>
+  <si>
+    <t>Product' option is selected from the dropdown 'filterBy'</t>
+  </si>
+  <si>
+    <t>In 'filterBy' drodown user selects 'Product'</t>
+  </si>
+  <si>
+    <t>Demo</t>
+  </si>
+  <si>
+    <t>ThreadCount</t>
   </si>
 </sst>
 </file>
@@ -491,7 +504,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -527,11 +540,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -554,6 +582,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -834,20 +864,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.42578125" customWidth="1"/>
-    <col min="2" max="2" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
         <v>1</v>
       </c>
@@ -855,116 +885,106 @@
         <v>85</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="E1" s="11" t="s">
-        <v>119</v>
+        <v>116</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>54</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>61</v>
+      <c r="C2" t="s">
+        <v>120</v>
       </c>
       <c r="D2" t="s">
-        <v>121</v>
-      </c>
-      <c r="E2" t="s">
-        <v>121</v>
+        <v>120</v>
+      </c>
+      <c r="E2">
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>55</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>61</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>61</v>
+        <v>120</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>121</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="E3" s="1"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>56</v>
       </c>
-      <c r="B4" t="s">
-        <v>53</v>
+      <c r="B4" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>61</v>
+        <v>117</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>120</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="E4" s="1"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B5" t="s">
-        <v>61</v>
+      <c r="B5" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>61</v>
+        <v>117</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>120</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="E5" s="1"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>58</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>61</v>
+        <v>117</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>120</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="E6" s="1"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>59</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>61</v>
+        <v>120</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>121</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="E7" s="1"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -974,76 +994,79 @@
         <v>61</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>61</v>
+        <v>120</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>121</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="E8" s="1"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B9" t="s">
         <v>61</v>
       </c>
-      <c r="C9" t="s">
-        <v>53</v>
+      <c r="C9" s="1" t="s">
+        <v>117</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>120</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="E9" s="1"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B10" t="s">
         <v>61</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="E10" s="1"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>136</v>
+      </c>
+      <c r="B11" t="s">
         <v>61</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>121</v>
-      </c>
+      <c r="C11" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D11" t="s">
+        <v>119</v>
+      </c>
+      <c r="E11" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Sheet3!$A$1:$A$4</xm:f>
+          </x14:formula1>
+          <xm:sqref>C2:C11</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Sheet3!$B$1:$B$4</xm:f>
           </x14:formula1>
           <xm:sqref>D2:D10</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>Sheet3!$B$1:$B$4</xm:f>
-          </x14:formula1>
-          <xm:sqref>E2:E10</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
             <xm:f>Sheet3!$D$1:$D$2</xm:f>
-          </x14:formula1>
-          <xm:sqref>C1</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Sheet3!$C$1:$C$2</xm:f>
           </x14:formula1>
           <xm:sqref>B1</xm:sqref>
         </x14:dataValidation>
@@ -1055,10 +1078,56 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C16"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="42.85546875" customWidth="1"/>
+    <col min="2" max="2" width="79" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="90.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B16" s="7"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1176,7 +1245,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D4"/>
   <sheetViews>
@@ -1192,46 +1261,46 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -1243,8 +1312,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1268,31 +1337,31 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C4" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C5" s="1" t="s">
-        <v>77</v>
+        <v>133</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -1315,18 +1384,28 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C9" s="9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C10" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C11" s="7"/>
+      <c r="C11" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C13" s="1" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C14" s="5" t="s">
+        <v>134</v>
+      </c>
       <c r="E14" s="8"/>
     </row>
   </sheetData>
@@ -1364,33 +1443,33 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C3" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C4" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C5" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C6" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -1400,11 +1479,23 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1430,54 +1521,54 @@
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>89</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:3" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>91</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="4" spans="1:3" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:3" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1486,14 +1577,14 @@
         <v>5</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="2"/>
       <c r="C10" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -1502,7 +1593,7 @@
         <v>6</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -1511,14 +1602,14 @@
         <v>7</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -1527,14 +1618,14 @@
         <v>8</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -1543,12 +1634,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1577,17 +1668,17 @@
         <v>64</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C3" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C4" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="5" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1595,7 +1686,7 @@
         <v>65</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -1609,14 +1700,14 @@
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -1630,7 +1721,7 @@
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -1645,12 +1736,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1673,30 +1764,30 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>64</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B3" s="1"/>
       <c r="C3" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C4" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B5" s="1"/>
       <c r="C5" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -1722,7 +1813,7 @@
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -1742,7 +1833,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C9"/>
   <sheetViews>
@@ -1814,7 +1905,7 @@
       <c r="A7"/>
       <c r="B7"/>
       <c r="C7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -1836,7 +1927,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C37"/>
   <sheetViews>
@@ -2025,50 +2116,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C16"/>
-  <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="42.85546875" customWidth="1"/>
-    <col min="2" max="2" width="79" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="90.7109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B16" s="7"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
-</worksheet>
 </file>
--- a/testcases.xlsx
+++ b/testcases.xlsx
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="138">
   <si>
     <t>click on 'Careers'</t>
   </si>
@@ -453,10 +453,10 @@
     <t>In 'filterBy' drodown user selects 'Product'</t>
   </si>
   <si>
-    <t>Demo</t>
-  </si>
-  <si>
-    <t>ThreadCount</t>
+    <t>Parallel - ThreadCount</t>
+  </si>
+  <si>
+    <t>RegressionExecutionFlag</t>
   </si>
 </sst>
 </file>
@@ -504,25 +504,12 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="6">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -555,11 +542,54 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -580,10 +610,11 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -867,31 +898,31 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.42578125" customWidth="1"/>
     <col min="2" max="2" width="25.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="C1" s="11" t="s">
+      <c r="B1" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="C1" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="E1" s="13" t="s">
-        <v>137</v>
+      <c r="E1" s="11" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -908,7 +939,7 @@
         <v>120</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -931,7 +962,7 @@
         <v>56</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>117</v>
@@ -961,7 +992,7 @@
         <v>58</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>117</v>
@@ -1032,43 +1063,34 @@
       <c r="E10" s="1"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>136</v>
-      </c>
-      <c r="B11" t="s">
-        <v>61</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="D11" t="s">
-        <v>119</v>
-      </c>
+      <c r="C11" s="1"/>
       <c r="E11" s="1"/>
     </row>
   </sheetData>
+  <dataValidations count="4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D10">
+      <formula1>"Windows,Mac,Linux"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2">
+      <formula1>"1,2,3,4,5,6,7,8,9,10"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B10">
+      <formula1>"Y,N"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C10">
+      <formula1>"Firefox,Chrome,IE"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Sheet3!$A$1:$A$4</xm:f>
           </x14:formula1>
-          <xm:sqref>C2:C11</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Sheet3!$B$1:$B$4</xm:f>
-          </x14:formula1>
-          <xm:sqref>D2:D10</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Sheet3!$D$1:$D$2</xm:f>
-          </x14:formula1>
-          <xm:sqref>B1</xm:sqref>
+          <xm:sqref>C11</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1250,7 +1272,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1266,10 +1288,10 @@
       <c r="B1" t="s">
         <v>120</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="10" t="s">
         <v>127</v>
       </c>
     </row>
@@ -1280,10 +1302,10 @@
       <c r="B2" t="s">
         <v>119</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="10" t="s">
         <v>85</v>
       </c>
     </row>
